--- a/Desktop file/20220113/Edward_Service_Not_Suitable_File.xlsx
+++ b/Desktop file/20220113/Edward_Service_Not_Suitable_File.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_AAB2CC3EF24E34D4E72EA520FE74D56F3752A49D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4787" uniqueCount="2799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4781" uniqueCount="2795">
   <si>
     <t>Original Compare Beyond 4 File</t>
   </si>
@@ -7018,19 +7017,7 @@
     <t>`Routing Preference` is not available on Mooncake.</t>
   </si>
   <si>
-    <t>articles\virtual-network\ip-services\configure-public-ip-vpn-gateway.md</t>
-  </si>
-  <si>
-    <t>articles/virtual-network/ip-services/configure-public-ip-vpn-gateway.md</t>
-  </si>
-  <si>
     <t>articles/virtual-network/ip-services</t>
-  </si>
-  <si>
-    <t>configure-public-ip-vpn-gateway.md</t>
-  </si>
-  <si>
-    <t>`VpnGwXAZ` is not available on Mooncake, X means from 1 to 5</t>
   </si>
   <si>
     <t>H:\gitrep\azure-docs-pr\articles\governance\policy\samples\australia-ism.md</t>
@@ -8438,8 +8425,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8756,16 +8743,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F802"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C780" workbookViewId="0">
-      <selection activeCell="F795" sqref="F795"/>
+    <sheetView tabSelected="1" topLeftCell="A651" workbookViewId="0">
+      <selection activeCell="A659" sqref="A659"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="95.140625" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
@@ -8773,7 +8760,7 @@
     <col min="6" max="6" width="189.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8793,7 +8780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -8813,7 +8800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -8833,7 +8820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -8853,7 +8840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -8873,7 +8860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -8893,7 +8880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -8913,7 +8900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -8933,7 +8920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -8953,7 +8940,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -8973,7 +8960,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -8993,7 +8980,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -9013,7 +9000,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -9033,7 +9020,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -9053,7 +9040,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -9073,7 +9060,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -9093,7 +9080,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -9113,7 +9100,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -9133,7 +9120,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -9153,7 +9140,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -9173,7 +9160,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -9193,7 +9180,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -9213,7 +9200,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -9233,7 +9220,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -9253,7 +9240,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -9273,7 +9260,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -9293,7 +9280,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -9313,7 +9300,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -9333,7 +9320,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -9353,7 +9340,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>122</v>
       </c>
@@ -9373,7 +9360,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>128</v>
       </c>
@@ -9393,7 +9380,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>132</v>
       </c>
@@ -9413,7 +9400,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>137</v>
       </c>
@@ -9433,7 +9420,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>140</v>
       </c>
@@ -9453,7 +9440,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -9473,7 +9460,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>146</v>
       </c>
@@ -9493,7 +9480,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -9513,7 +9500,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -9533,7 +9520,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>155</v>
       </c>
@@ -9553,7 +9540,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>158</v>
       </c>
@@ -9573,7 +9560,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -9593,7 +9580,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>164</v>
       </c>
@@ -9613,7 +9600,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -9633,7 +9620,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -9653,7 +9640,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>173</v>
       </c>
@@ -9673,7 +9660,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>176</v>
       </c>
@@ -9693,7 +9680,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>179</v>
       </c>
@@ -9713,7 +9700,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>183</v>
       </c>
@@ -9733,7 +9720,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>187</v>
       </c>
@@ -9753,7 +9740,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>190</v>
       </c>
@@ -9773,7 +9760,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>193</v>
       </c>
@@ -9793,7 +9780,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>197</v>
       </c>
@@ -9813,7 +9800,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>201</v>
       </c>
@@ -9833,7 +9820,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>206</v>
       </c>
@@ -9853,7 +9840,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>210</v>
       </c>
@@ -9873,7 +9860,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>213</v>
       </c>
@@ -9893,7 +9880,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>217</v>
       </c>
@@ -9913,7 +9900,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>221</v>
       </c>
@@ -9933,7 +9920,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>225</v>
       </c>
@@ -9953,7 +9940,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>228</v>
       </c>
@@ -9973,7 +9960,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>231</v>
       </c>
@@ -9993,7 +9980,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>235</v>
       </c>
@@ -10013,7 +10000,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>239</v>
       </c>
@@ -10033,7 +10020,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>242</v>
       </c>
@@ -10050,7 +10037,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>246</v>
       </c>
@@ -10070,7 +10057,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>252</v>
       </c>
@@ -10090,7 +10077,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>256</v>
       </c>
@@ -10110,7 +10097,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>260</v>
       </c>
@@ -10130,7 +10117,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>264</v>
       </c>
@@ -10150,7 +10137,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>268</v>
       </c>
@@ -10170,7 +10157,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>272</v>
       </c>
@@ -10190,7 +10177,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>276</v>
       </c>
@@ -10210,7 +10197,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>280</v>
       </c>
@@ -10230,7 +10217,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>284</v>
       </c>
@@ -10250,7 +10237,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>288</v>
       </c>
@@ -10270,7 +10257,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>292</v>
       </c>
@@ -10290,7 +10277,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>296</v>
       </c>
@@ -10310,7 +10297,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>300</v>
       </c>
@@ -10330,7 +10317,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>304</v>
       </c>
@@ -10350,7 +10337,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>308</v>
       </c>
@@ -10370,7 +10357,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>312</v>
       </c>
@@ -10390,7 +10377,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>316</v>
       </c>
@@ -10410,7 +10397,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>320</v>
       </c>
@@ -10430,7 +10417,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>324</v>
       </c>
@@ -10450,7 +10437,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>328</v>
       </c>
@@ -10470,7 +10457,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>332</v>
       </c>
@@ -10490,7 +10477,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>336</v>
       </c>
@@ -10510,7 +10497,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>340</v>
       </c>
@@ -10530,7 +10517,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>344</v>
       </c>
@@ -10550,7 +10537,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>348</v>
       </c>
@@ -10570,7 +10557,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>351</v>
       </c>
@@ -10590,7 +10577,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>357</v>
       </c>
@@ -10610,7 +10597,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>361</v>
       </c>
@@ -10630,7 +10617,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>365</v>
       </c>
@@ -10650,7 +10637,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>371</v>
       </c>
@@ -10670,7 +10657,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>371</v>
       </c>
@@ -10690,7 +10677,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>376</v>
       </c>
@@ -10710,7 +10697,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>380</v>
       </c>
@@ -10730,7 +10717,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>384</v>
       </c>
@@ -10750,7 +10737,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>388</v>
       </c>
@@ -10770,7 +10757,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>391</v>
       </c>
@@ -10790,7 +10777,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>395</v>
       </c>
@@ -10810,7 +10797,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>399</v>
       </c>
@@ -10830,7 +10817,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>399</v>
       </c>
@@ -10850,7 +10837,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>404</v>
       </c>
@@ -10870,7 +10857,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>408</v>
       </c>
@@ -10890,7 +10877,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>412</v>
       </c>
@@ -10910,7 +10897,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>416</v>
       </c>
@@ -10930,7 +10917,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>420</v>
       </c>
@@ -10950,7 +10937,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>424</v>
       </c>
@@ -10970,7 +10957,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>429</v>
       </c>
@@ -10990,7 +10977,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>433</v>
       </c>
@@ -11010,7 +10997,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>437</v>
       </c>
@@ -11030,7 +11017,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>442</v>
       </c>
@@ -11050,7 +11037,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>446</v>
       </c>
@@ -11070,7 +11057,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>450</v>
       </c>
@@ -11090,7 +11077,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>454</v>
       </c>
@@ -11110,7 +11097,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>458</v>
       </c>
@@ -11130,7 +11117,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>462</v>
       </c>
@@ -11150,7 +11137,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>466</v>
       </c>
@@ -11170,7 +11157,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>469</v>
       </c>
@@ -11190,7 +11177,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>472</v>
       </c>
@@ -11210,7 +11197,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>476</v>
       </c>
@@ -11230,7 +11217,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>479</v>
       </c>
@@ -11250,7 +11237,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>483</v>
       </c>
@@ -11270,7 +11257,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>487</v>
       </c>
@@ -11290,7 +11277,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>491</v>
       </c>
@@ -11310,7 +11297,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>495</v>
       </c>
@@ -11330,7 +11317,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>499</v>
       </c>
@@ -11350,7 +11337,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>503</v>
       </c>
@@ -11370,7 +11357,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>507</v>
       </c>
@@ -11390,7 +11377,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>511</v>
       </c>
@@ -11410,7 +11397,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>515</v>
       </c>
@@ -11430,7 +11417,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>518</v>
       </c>
@@ -11450,7 +11437,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>522</v>
       </c>
@@ -11470,7 +11457,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>526</v>
       </c>
@@ -11490,7 +11477,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>530</v>
       </c>
@@ -11510,7 +11497,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>534</v>
       </c>
@@ -11530,7 +11517,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>538</v>
       </c>
@@ -11550,7 +11537,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>541</v>
       </c>
@@ -11570,7 +11557,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>545</v>
       </c>
@@ -11590,7 +11577,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>548</v>
       </c>
@@ -11610,7 +11597,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>551</v>
       </c>
@@ -11630,7 +11617,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>557</v>
       </c>
@@ -11647,7 +11634,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>560</v>
       </c>
@@ -11664,7 +11651,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>563</v>
       </c>
@@ -11681,7 +11668,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>566</v>
       </c>
@@ -11701,7 +11688,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>570</v>
       </c>
@@ -11718,7 +11705,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>573</v>
       </c>
@@ -11738,7 +11725,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>577</v>
       </c>
@@ -11758,7 +11745,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>581</v>
       </c>
@@ -11778,7 +11765,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>584</v>
       </c>
@@ -11798,7 +11785,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>587</v>
       </c>
@@ -11818,7 +11805,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>590</v>
       </c>
@@ -11838,7 +11825,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>593</v>
       </c>
@@ -11858,7 +11845,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>596</v>
       </c>
@@ -11878,7 +11865,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>600</v>
       </c>
@@ -11898,7 +11885,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>604</v>
       </c>
@@ -11918,7 +11905,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>608</v>
       </c>
@@ -11938,7 +11925,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>612</v>
       </c>
@@ -11958,7 +11945,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>618</v>
       </c>
@@ -11978,7 +11965,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>622</v>
       </c>
@@ -11998,7 +11985,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>626</v>
       </c>
@@ -12018,7 +12005,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>630</v>
       </c>
@@ -12038,7 +12025,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>633</v>
       </c>
@@ -12058,7 +12045,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>636</v>
       </c>
@@ -12078,7 +12065,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>636</v>
       </c>
@@ -12098,7 +12085,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>641</v>
       </c>
@@ -12118,7 +12105,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>645</v>
       </c>
@@ -12138,7 +12125,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>651</v>
       </c>
@@ -12158,7 +12145,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>651</v>
       </c>
@@ -12178,7 +12165,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>656</v>
       </c>
@@ -12198,7 +12185,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>659</v>
       </c>
@@ -12218,7 +12205,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>659</v>
       </c>
@@ -12238,7 +12225,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>664</v>
       </c>
@@ -12258,7 +12245,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>667</v>
       </c>
@@ -12278,7 +12265,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>671</v>
       </c>
@@ -12298,7 +12285,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>675</v>
       </c>
@@ -12318,7 +12305,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>679</v>
       </c>
@@ -12338,7 +12325,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>682</v>
       </c>
@@ -12358,7 +12345,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>686</v>
       </c>
@@ -12378,7 +12365,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>689</v>
       </c>
@@ -12398,7 +12385,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>693</v>
       </c>
@@ -12418,7 +12405,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>697</v>
       </c>
@@ -12438,7 +12425,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>701</v>
       </c>
@@ -12458,7 +12445,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>704</v>
       </c>
@@ -12478,7 +12465,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>708</v>
       </c>
@@ -12498,7 +12485,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>711</v>
       </c>
@@ -12518,7 +12505,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>715</v>
       </c>
@@ -12538,7 +12525,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>721</v>
       </c>
@@ -12558,7 +12545,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>725</v>
       </c>
@@ -12578,7 +12565,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>728</v>
       </c>
@@ -12598,7 +12585,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>732</v>
       </c>
@@ -12618,7 +12605,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>736</v>
       </c>
@@ -12638,7 +12625,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>739</v>
       </c>
@@ -12658,7 +12645,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>743</v>
       </c>
@@ -12678,7 +12665,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>749</v>
       </c>
@@ -12698,7 +12685,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>753</v>
       </c>
@@ -12718,7 +12705,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>757</v>
       </c>
@@ -12735,7 +12722,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>760</v>
       </c>
@@ -12752,7 +12739,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>763</v>
       </c>
@@ -12769,7 +12756,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>766</v>
       </c>
@@ -12789,7 +12776,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>770</v>
       </c>
@@ -12806,7 +12793,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>773</v>
       </c>
@@ -12826,7 +12813,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>777</v>
       </c>
@@ -12846,7 +12833,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>781</v>
       </c>
@@ -12866,7 +12853,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>785</v>
       </c>
@@ -12886,7 +12873,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>789</v>
       </c>
@@ -12906,7 +12893,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>793</v>
       </c>
@@ -12926,7 +12913,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>796</v>
       </c>
@@ -12946,7 +12933,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>800</v>
       </c>
@@ -12966,7 +12953,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>804</v>
       </c>
@@ -12986,7 +12973,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>807</v>
       </c>
@@ -13006,7 +12993,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>810</v>
       </c>
@@ -13026,7 +13013,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>813</v>
       </c>
@@ -13046,7 +13033,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>816</v>
       </c>
@@ -13066,7 +13053,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>819</v>
       </c>
@@ -13086,7 +13073,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>822</v>
       </c>
@@ -13106,7 +13093,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>825</v>
       </c>
@@ -13126,7 +13113,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>828</v>
       </c>
@@ -13146,7 +13133,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>831</v>
       </c>
@@ -13166,7 +13153,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>834</v>
       </c>
@@ -13186,7 +13173,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>838</v>
       </c>
@@ -13206,7 +13193,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>842</v>
       </c>
@@ -13226,7 +13213,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>846</v>
       </c>
@@ -13246,7 +13233,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>849</v>
       </c>
@@ -13266,7 +13253,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>853</v>
       </c>
@@ -13286,7 +13273,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>856</v>
       </c>
@@ -13303,7 +13290,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>859</v>
       </c>
@@ -13323,7 +13310,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>865</v>
       </c>
@@ -13343,7 +13330,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>869</v>
       </c>
@@ -13363,7 +13350,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>873</v>
       </c>
@@ -13383,7 +13370,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>877</v>
       </c>
@@ -13403,7 +13390,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>881</v>
       </c>
@@ -13423,7 +13410,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>884</v>
       </c>
@@ -13443,7 +13430,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>887</v>
       </c>
@@ -13463,7 +13450,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>890</v>
       </c>
@@ -13483,7 +13470,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>893</v>
       </c>
@@ -13503,7 +13490,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>896</v>
       </c>
@@ -13523,7 +13510,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>899</v>
       </c>
@@ -13543,7 +13530,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>903</v>
       </c>
@@ -13563,7 +13550,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>906</v>
       </c>
@@ -13583,7 +13570,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>910</v>
       </c>
@@ -13603,7 +13590,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>914</v>
       </c>
@@ -13620,7 +13607,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>917</v>
       </c>
@@ -13637,7 +13624,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>920</v>
       </c>
@@ -13654,7 +13641,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>923</v>
       </c>
@@ -13671,7 +13658,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>926</v>
       </c>
@@ -13688,7 +13675,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>929</v>
       </c>
@@ -13708,7 +13695,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>933</v>
       </c>
@@ -13725,7 +13712,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>936</v>
       </c>
@@ -13742,7 +13729,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>939</v>
       </c>
@@ -13759,7 +13746,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>942</v>
       </c>
@@ -13776,7 +13763,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>945</v>
       </c>
@@ -13796,7 +13783,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>949</v>
       </c>
@@ -13816,7 +13803,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>955</v>
       </c>
@@ -13836,7 +13823,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>959</v>
       </c>
@@ -13853,7 +13840,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>962</v>
       </c>
@@ -13870,7 +13857,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>965</v>
       </c>
@@ -13890,7 +13877,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>969</v>
       </c>
@@ -13910,7 +13897,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>973</v>
       </c>
@@ -13927,7 +13914,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>976</v>
       </c>
@@ -13947,7 +13934,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>980</v>
       </c>
@@ -13967,7 +13954,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>984</v>
       </c>
@@ -13987,7 +13974,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>988</v>
       </c>
@@ -14007,7 +13994,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>992</v>
       </c>
@@ -14024,7 +14011,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>995</v>
       </c>
@@ -14041,7 +14028,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>998</v>
       </c>
@@ -14061,7 +14048,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1004</v>
       </c>
@@ -14081,7 +14068,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1008</v>
       </c>
@@ -14101,7 +14088,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1011</v>
       </c>
@@ -14121,7 +14108,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1015</v>
       </c>
@@ -14141,7 +14128,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1018</v>
       </c>
@@ -14161,7 +14148,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1021</v>
       </c>
@@ -14181,7 +14168,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1027</v>
       </c>
@@ -14201,7 +14188,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1031</v>
       </c>
@@ -14221,7 +14208,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1035</v>
       </c>
@@ -14241,7 +14228,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1039</v>
       </c>
@@ -14261,7 +14248,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1044</v>
       </c>
@@ -14281,7 +14268,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1048</v>
       </c>
@@ -14301,7 +14288,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1048</v>
       </c>
@@ -14321,7 +14308,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1053</v>
       </c>
@@ -14341,7 +14328,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1057</v>
       </c>
@@ -14361,7 +14348,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1061</v>
       </c>
@@ -14381,7 +14368,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1065</v>
       </c>
@@ -14401,7 +14388,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1069</v>
       </c>
@@ -14421,7 +14408,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1073</v>
       </c>
@@ -14441,7 +14428,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1077</v>
       </c>
@@ -14461,7 +14448,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1081</v>
       </c>
@@ -14481,7 +14468,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1085</v>
       </c>
@@ -14501,7 +14488,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1089</v>
       </c>
@@ -14521,7 +14508,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1094</v>
       </c>
@@ -14541,7 +14528,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1097</v>
       </c>
@@ -14561,7 +14548,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1101</v>
       </c>
@@ -14581,7 +14568,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1105</v>
       </c>
@@ -14601,7 +14588,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1109</v>
       </c>
@@ -14621,7 +14608,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1113</v>
       </c>
@@ -14641,7 +14628,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1117</v>
       </c>
@@ -14661,7 +14648,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1120</v>
       </c>
@@ -14681,7 +14668,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1120</v>
       </c>
@@ -14701,7 +14688,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1124</v>
       </c>
@@ -14721,7 +14708,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1127</v>
       </c>
@@ -14741,7 +14728,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1130</v>
       </c>
@@ -14761,7 +14748,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1134</v>
       </c>
@@ -14781,7 +14768,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1137</v>
       </c>
@@ -14801,7 +14788,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1140</v>
       </c>
@@ -14821,7 +14808,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1143</v>
       </c>
@@ -14841,7 +14828,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1146</v>
       </c>
@@ -14861,7 +14848,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1149</v>
       </c>
@@ -14881,7 +14868,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1153</v>
       </c>
@@ -14901,7 +14888,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1157</v>
       </c>
@@ -14921,7 +14908,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1161</v>
       </c>
@@ -14941,7 +14928,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1165</v>
       </c>
@@ -14961,7 +14948,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1169</v>
       </c>
@@ -14981,7 +14968,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1172</v>
       </c>
@@ -15001,7 +14988,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1175</v>
       </c>
@@ -15021,7 +15008,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1178</v>
       </c>
@@ -15041,7 +15028,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1181</v>
       </c>
@@ -15061,7 +15048,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1184</v>
       </c>
@@ -15081,7 +15068,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1188</v>
       </c>
@@ -15101,7 +15088,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1192</v>
       </c>
@@ -15121,7 +15108,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1195</v>
       </c>
@@ -15141,7 +15128,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1198</v>
       </c>
@@ -15161,7 +15148,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1201</v>
       </c>
@@ -15181,7 +15168,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1204</v>
       </c>
@@ -15201,7 +15188,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1204</v>
       </c>
@@ -15221,7 +15208,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1209</v>
       </c>
@@ -15241,7 +15228,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1213</v>
       </c>
@@ -15261,7 +15248,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1216</v>
       </c>
@@ -15281,7 +15268,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1220</v>
       </c>
@@ -15301,7 +15288,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1224</v>
       </c>
@@ -15321,7 +15308,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1227</v>
       </c>
@@ -15341,7 +15328,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1227</v>
       </c>
@@ -15361,7 +15348,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1232</v>
       </c>
@@ -15381,7 +15368,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1232</v>
       </c>
@@ -15401,7 +15388,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1236</v>
       </c>
@@ -15421,7 +15408,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1240</v>
       </c>
@@ -15441,7 +15428,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1244</v>
       </c>
@@ -15461,7 +15448,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1248</v>
       </c>
@@ -15481,7 +15468,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1251</v>
       </c>
@@ -15501,7 +15488,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1254</v>
       </c>
@@ -15521,7 +15508,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1259</v>
       </c>
@@ -15541,7 +15528,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1259</v>
       </c>
@@ -15561,7 +15548,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1264</v>
       </c>
@@ -15581,7 +15568,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1268</v>
       </c>
@@ -15601,7 +15588,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1271</v>
       </c>
@@ -15621,7 +15608,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1275</v>
       </c>
@@ -15641,7 +15628,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1279</v>
       </c>
@@ -15661,7 +15648,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1283</v>
       </c>
@@ -15681,7 +15668,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1287</v>
       </c>
@@ -15701,7 +15688,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1291</v>
       </c>
@@ -15721,7 +15708,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1295</v>
       </c>
@@ -15741,7 +15728,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1299</v>
       </c>
@@ -15761,7 +15748,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1303</v>
       </c>
@@ -15781,7 +15768,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1307</v>
       </c>
@@ -15801,7 +15788,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1310</v>
       </c>
@@ -15821,7 +15808,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1314</v>
       </c>
@@ -15841,7 +15828,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1318</v>
       </c>
@@ -15861,7 +15848,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1322</v>
       </c>
@@ -15881,7 +15868,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1326</v>
       </c>
@@ -15901,7 +15888,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1330</v>
       </c>
@@ -15921,7 +15908,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1334</v>
       </c>
@@ -15941,7 +15928,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1338</v>
       </c>
@@ -15961,7 +15948,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1342</v>
       </c>
@@ -15981,7 +15968,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1346</v>
       </c>
@@ -16001,7 +15988,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1348</v>
       </c>
@@ -16021,7 +16008,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1351</v>
       </c>
@@ -16041,7 +16028,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1356</v>
       </c>
@@ -16061,7 +16048,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1360</v>
       </c>
@@ -16081,7 +16068,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1364</v>
       </c>
@@ -16101,7 +16088,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1368</v>
       </c>
@@ -16121,7 +16108,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1371</v>
       </c>
@@ -16141,7 +16128,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1374</v>
       </c>
@@ -16161,7 +16148,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1377</v>
       </c>
@@ -16181,7 +16168,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1381</v>
       </c>
@@ -16201,7 +16188,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1383</v>
       </c>
@@ -16221,7 +16208,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1387</v>
       </c>
@@ -16241,7 +16228,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1389</v>
       </c>
@@ -16261,7 +16248,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1392</v>
       </c>
@@ -16281,7 +16268,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1395</v>
       </c>
@@ -16301,7 +16288,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1398</v>
       </c>
@@ -16321,7 +16308,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1402</v>
       </c>
@@ -16341,7 +16328,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1407</v>
       </c>
@@ -16361,7 +16348,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1407</v>
       </c>
@@ -16381,7 +16368,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1412</v>
       </c>
@@ -16401,7 +16388,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1414</v>
       </c>
@@ -16421,7 +16408,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1416</v>
       </c>
@@ -16441,7 +16428,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1419</v>
       </c>
@@ -16461,7 +16448,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1423</v>
       </c>
@@ -16481,7 +16468,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1425</v>
       </c>
@@ -16501,7 +16488,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1427</v>
       </c>
@@ -16521,7 +16508,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1430</v>
       </c>
@@ -16541,7 +16528,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1433</v>
       </c>
@@ -16561,7 +16548,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1436</v>
       </c>
@@ -16581,7 +16568,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1438</v>
       </c>
@@ -16601,7 +16588,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1440</v>
       </c>
@@ -16621,7 +16608,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1442</v>
       </c>
@@ -16641,7 +16628,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1442</v>
       </c>
@@ -16661,7 +16648,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1447</v>
       </c>
@@ -16681,7 +16668,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1447</v>
       </c>
@@ -16701,7 +16688,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1449</v>
       </c>
@@ -16721,7 +16708,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1451</v>
       </c>
@@ -16741,7 +16728,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1451</v>
       </c>
@@ -16761,7 +16748,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1453</v>
       </c>
@@ -16781,7 +16768,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1453</v>
       </c>
@@ -16801,7 +16788,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1455</v>
       </c>
@@ -16821,7 +16808,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1457</v>
       </c>
@@ -16841,7 +16828,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1459</v>
       </c>
@@ -16861,7 +16848,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1461</v>
       </c>
@@ -16881,7 +16868,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1464</v>
       </c>
@@ -16901,7 +16888,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1466</v>
       </c>
@@ -16921,7 +16908,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1468</v>
       </c>
@@ -16941,7 +16928,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1473</v>
       </c>
@@ -16958,7 +16945,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1473</v>
       </c>
@@ -16978,7 +16965,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1477</v>
       </c>
@@ -16998,7 +16985,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1481</v>
       </c>
@@ -17018,7 +17005,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1485</v>
       </c>
@@ -17038,7 +17025,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1489</v>
       </c>
@@ -17058,7 +17045,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1492</v>
       </c>
@@ -17078,7 +17065,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1496</v>
       </c>
@@ -17098,7 +17085,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1500</v>
       </c>
@@ -17118,7 +17105,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1504</v>
       </c>
@@ -17138,7 +17125,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1508</v>
       </c>
@@ -17158,7 +17145,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1511</v>
       </c>
@@ -17178,7 +17165,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1515</v>
       </c>
@@ -17198,7 +17185,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1518</v>
       </c>
@@ -17218,7 +17205,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1522</v>
       </c>
@@ -17238,7 +17225,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1524</v>
       </c>
@@ -17258,7 +17245,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1526</v>
       </c>
@@ -17278,7 +17265,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1528</v>
       </c>
@@ -17298,7 +17285,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1532</v>
       </c>
@@ -17318,7 +17305,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1538</v>
       </c>
@@ -17338,7 +17325,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1542</v>
       </c>
@@ -17358,7 +17345,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1546</v>
       </c>
@@ -17378,7 +17365,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1550</v>
       </c>
@@ -17398,7 +17385,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1553</v>
       </c>
@@ -17418,7 +17405,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1556</v>
       </c>
@@ -17438,7 +17425,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1559</v>
       </c>
@@ -17458,7 +17445,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1563</v>
       </c>
@@ -17478,7 +17465,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1566</v>
       </c>
@@ -17498,7 +17485,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1569</v>
       </c>
@@ -17518,7 +17505,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1573</v>
       </c>
@@ -17538,7 +17525,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>1576</v>
       </c>
@@ -17558,7 +17545,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1576</v>
       </c>
@@ -17578,7 +17565,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>1581</v>
       </c>
@@ -17598,7 +17585,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1585</v>
       </c>
@@ -17618,7 +17605,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1589</v>
       </c>
@@ -17638,7 +17625,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1593</v>
       </c>
@@ -17658,7 +17645,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1597</v>
       </c>
@@ -17678,7 +17665,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1601</v>
       </c>
@@ -17698,7 +17685,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1605</v>
       </c>
@@ -17718,7 +17705,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1609</v>
       </c>
@@ -17738,7 +17725,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1613</v>
       </c>
@@ -17758,7 +17745,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1613</v>
       </c>
@@ -17778,7 +17765,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1613</v>
       </c>
@@ -17798,7 +17785,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1618</v>
       </c>
@@ -17818,7 +17805,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1622</v>
       </c>
@@ -17838,7 +17825,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1626</v>
       </c>
@@ -17858,7 +17845,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1630</v>
       </c>
@@ -17878,7 +17865,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1634</v>
       </c>
@@ -17898,7 +17885,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1638</v>
       </c>
@@ -17918,7 +17905,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1642</v>
       </c>
@@ -17938,7 +17925,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1646</v>
       </c>
@@ -17958,7 +17945,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1646</v>
       </c>
@@ -17978,7 +17965,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1649</v>
       </c>
@@ -17998,7 +17985,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1655</v>
       </c>
@@ -18018,7 +18005,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1659</v>
       </c>
@@ -18038,7 +18025,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1663</v>
       </c>
@@ -18058,7 +18045,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1667</v>
       </c>
@@ -18078,7 +18065,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1673</v>
       </c>
@@ -18098,7 +18085,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1676</v>
       </c>
@@ -18118,7 +18105,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1679</v>
       </c>
@@ -18138,7 +18125,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1679</v>
       </c>
@@ -18158,7 +18145,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1684</v>
       </c>
@@ -18178,7 +18165,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1688</v>
       </c>
@@ -18198,7 +18185,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1691</v>
       </c>
@@ -18218,7 +18205,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1694</v>
       </c>
@@ -18238,7 +18225,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1697</v>
       </c>
@@ -18258,7 +18245,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1700</v>
       </c>
@@ -18278,7 +18265,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1703</v>
       </c>
@@ -18298,7 +18285,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1706</v>
       </c>
@@ -18318,7 +18305,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="482" spans="1:6">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1710</v>
       </c>
@@ -18338,7 +18325,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1713</v>
       </c>
@@ -18358,7 +18345,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1716</v>
       </c>
@@ -18378,7 +18365,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1719</v>
       </c>
@@ -18398,7 +18385,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="486" spans="1:6">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1723</v>
       </c>
@@ -18418,7 +18405,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1726</v>
       </c>
@@ -18438,7 +18425,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="488" spans="1:6">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1729</v>
       </c>
@@ -18458,7 +18445,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="489" spans="1:6">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1733</v>
       </c>
@@ -18478,7 +18465,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1737</v>
       </c>
@@ -18498,7 +18485,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="491" spans="1:6">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1740</v>
       </c>
@@ -18518,7 +18505,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="492" spans="1:6">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>1743</v>
       </c>
@@ -18538,7 +18525,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1744</v>
       </c>
@@ -18558,7 +18545,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1750</v>
       </c>
@@ -18578,7 +18565,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="495" spans="1:6">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1754</v>
       </c>
@@ -18598,7 +18585,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="496" spans="1:6">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1758</v>
       </c>
@@ -18618,7 +18605,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="497" spans="1:6">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1762</v>
       </c>
@@ -18638,7 +18625,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="498" spans="1:6">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1766</v>
       </c>
@@ -18658,7 +18645,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="499" spans="1:6">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1770</v>
       </c>
@@ -18678,7 +18665,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="500" spans="1:6">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1774</v>
       </c>
@@ -18698,7 +18685,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="501" spans="1:6">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1778</v>
       </c>
@@ -18718,7 +18705,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="502" spans="1:6">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1782</v>
       </c>
@@ -18738,7 +18725,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="503" spans="1:6">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1786</v>
       </c>
@@ -18758,7 +18745,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="504" spans="1:6">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1790</v>
       </c>
@@ -18778,7 +18765,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="505" spans="1:6">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1793</v>
       </c>
@@ -18798,7 +18785,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="506" spans="1:6">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1797</v>
       </c>
@@ -18818,7 +18805,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="507" spans="1:6">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1801</v>
       </c>
@@ -18838,7 +18825,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="508" spans="1:6">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1804</v>
       </c>
@@ -18858,7 +18845,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="509" spans="1:6">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1808</v>
       </c>
@@ -18878,7 +18865,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="510" spans="1:6">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1812</v>
       </c>
@@ -18898,7 +18885,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="511" spans="1:6">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1816</v>
       </c>
@@ -18918,7 +18905,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="512" spans="1:6">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1820</v>
       </c>
@@ -18938,7 +18925,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="513" spans="1:6">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1826</v>
       </c>
@@ -18958,7 +18945,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="514" spans="1:6">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1830</v>
       </c>
@@ -18978,7 +18965,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="515" spans="1:6">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1758</v>
       </c>
@@ -18998,7 +18985,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="516" spans="1:6">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1835</v>
       </c>
@@ -19018,7 +19005,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="517" spans="1:6">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1835</v>
       </c>
@@ -19038,7 +19025,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="518" spans="1:6">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1839</v>
       </c>
@@ -19058,7 +19045,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="519" spans="1:6">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1842</v>
       </c>
@@ -19078,7 +19065,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="520" spans="1:6">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1845</v>
       </c>
@@ -19098,7 +19085,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="521" spans="1:6">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1848</v>
       </c>
@@ -19118,7 +19105,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="522" spans="1:6">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1845</v>
       </c>
@@ -19138,7 +19125,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="523" spans="1:6">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1851</v>
       </c>
@@ -19158,7 +19145,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="524" spans="1:6">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1854</v>
       </c>
@@ -19178,7 +19165,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="525" spans="1:6">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1858</v>
       </c>
@@ -19198,7 +19185,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="526" spans="1:6">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1861</v>
       </c>
@@ -19218,7 +19205,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="527" spans="1:6">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1865</v>
       </c>
@@ -19238,7 +19225,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="528" spans="1:6">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1868</v>
       </c>
@@ -19258,7 +19245,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="529" spans="1:6">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1873</v>
       </c>
@@ -19278,7 +19265,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="530" spans="1:6">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1876</v>
       </c>
@@ -19298,7 +19285,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="531" spans="1:6">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1879</v>
       </c>
@@ -19318,7 +19305,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="532" spans="1:6">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1883</v>
       </c>
@@ -19338,7 +19325,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="533" spans="1:6">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1887</v>
       </c>
@@ -19358,7 +19345,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="534" spans="1:6">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1891</v>
       </c>
@@ -19378,7 +19365,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="535" spans="1:6">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1896</v>
       </c>
@@ -19398,7 +19385,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="536" spans="1:6">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1900</v>
       </c>
@@ -19418,7 +19405,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="537" spans="1:6">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1904</v>
       </c>
@@ -19438,7 +19425,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="538" spans="1:6">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1908</v>
       </c>
@@ -19458,7 +19445,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="539" spans="1:6">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1912</v>
       </c>
@@ -19478,7 +19465,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="540" spans="1:6">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1793</v>
       </c>
@@ -19498,7 +19485,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="541" spans="1:6">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1916</v>
       </c>
@@ -19518,7 +19505,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="542" spans="1:6">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1436</v>
       </c>
@@ -19538,7 +19525,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="543" spans="1:6">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1920</v>
       </c>
@@ -19558,7 +19545,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="544" spans="1:6">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1812</v>
       </c>
@@ -19578,7 +19565,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="545" spans="1:6">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1925</v>
       </c>
@@ -19598,7 +19585,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="546" spans="1:6">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1929</v>
       </c>
@@ -19618,7 +19605,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="547" spans="1:6">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1933</v>
       </c>
@@ -19638,7 +19625,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="548" spans="1:6">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1937</v>
       </c>
@@ -19658,7 +19645,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="549" spans="1:6">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1941</v>
       </c>
@@ -19678,7 +19665,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="550" spans="1:6">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1945</v>
       </c>
@@ -19698,7 +19685,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="551" spans="1:6">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1949</v>
       </c>
@@ -19718,7 +19705,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="552" spans="1:6">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1953</v>
       </c>
@@ -19738,7 +19725,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="553" spans="1:6">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1957</v>
       </c>
@@ -19758,7 +19745,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="554" spans="1:6">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1961</v>
       </c>
@@ -19778,7 +19765,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="555" spans="1:6">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1964</v>
       </c>
@@ -19798,7 +19785,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="556" spans="1:6">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1967</v>
       </c>
@@ -19818,7 +19805,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="557" spans="1:6">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1971</v>
       </c>
@@ -19838,7 +19825,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="558" spans="1:6">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1975</v>
       </c>
@@ -19858,7 +19845,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="559" spans="1:6">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1978</v>
       </c>
@@ -19878,7 +19865,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="560" spans="1:6">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1981</v>
       </c>
@@ -19898,7 +19885,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="561" spans="1:6">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1984</v>
       </c>
@@ -19918,7 +19905,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="562" spans="1:6">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1987</v>
       </c>
@@ -19938,7 +19925,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="563" spans="1:6">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1990</v>
       </c>
@@ -19958,7 +19945,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="564" spans="1:6">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1993</v>
       </c>
@@ -19978,7 +19965,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="565" spans="1:6">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1996</v>
       </c>
@@ -19998,7 +19985,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="566" spans="1:6">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1999</v>
       </c>
@@ -20018,7 +20005,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="567" spans="1:6">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>2002</v>
       </c>
@@ -20038,7 +20025,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="568" spans="1:6">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>2005</v>
       </c>
@@ -20058,7 +20045,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="569" spans="1:6">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>2008</v>
       </c>
@@ -20078,7 +20065,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="570" spans="1:6">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>2011</v>
       </c>
@@ -20098,7 +20085,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="571" spans="1:6">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>2014</v>
       </c>
@@ -20118,7 +20105,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="572" spans="1:6">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>2017</v>
       </c>
@@ -20138,7 +20125,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="573" spans="1:6">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>2021</v>
       </c>
@@ -20158,7 +20145,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="574" spans="1:6">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>2024</v>
       </c>
@@ -20178,7 +20165,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="575" spans="1:6">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>2028</v>
       </c>
@@ -20198,7 +20185,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="576" spans="1:6">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>2031</v>
       </c>
@@ -20218,7 +20205,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="577" spans="1:6">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>2035</v>
       </c>
@@ -20238,7 +20225,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="578" spans="1:6">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>2039</v>
       </c>
@@ -20258,7 +20245,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="579" spans="1:6">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>2043</v>
       </c>
@@ -20278,7 +20265,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="580" spans="1:6">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>2047</v>
       </c>
@@ -20298,7 +20285,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="581" spans="1:6">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>2050</v>
       </c>
@@ -20318,7 +20305,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="582" spans="1:6">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>2054</v>
       </c>
@@ -20338,7 +20325,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="583" spans="1:6">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>2057</v>
       </c>
@@ -20358,7 +20345,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="584" spans="1:6">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>2060</v>
       </c>
@@ -20378,7 +20365,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="585" spans="1:6">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>2066</v>
       </c>
@@ -20398,7 +20385,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="586" spans="1:6">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>2070</v>
       </c>
@@ -20418,7 +20405,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="587" spans="1:6">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>2031</v>
       </c>
@@ -20438,7 +20425,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="588" spans="1:6">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>2074</v>
       </c>
@@ -20458,7 +20445,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="589" spans="1:6">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>2078</v>
       </c>
@@ -20478,7 +20465,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="590" spans="1:6">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>2082</v>
       </c>
@@ -20498,7 +20485,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="591" spans="1:6">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>2086</v>
       </c>
@@ -20518,7 +20505,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="592" spans="1:6">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>2090</v>
       </c>
@@ -20538,7 +20525,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="593" spans="1:6">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>2095</v>
       </c>
@@ -20558,7 +20545,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="594" spans="1:6">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>2100</v>
       </c>
@@ -20578,7 +20565,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="595" spans="1:6">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>2104</v>
       </c>
@@ -20598,7 +20585,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="596" spans="1:6">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>2108</v>
       </c>
@@ -20618,7 +20605,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="597" spans="1:6">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>2112</v>
       </c>
@@ -20638,7 +20625,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="598" spans="1:6">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>2115</v>
       </c>
@@ -20658,7 +20645,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="599" spans="1:6">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>2118</v>
       </c>
@@ -20678,7 +20665,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="600" spans="1:6">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>2121</v>
       </c>
@@ -20698,7 +20685,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="601" spans="1:6">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>2060</v>
       </c>
@@ -20718,7 +20705,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="602" spans="1:6">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>2066</v>
       </c>
@@ -20738,7 +20725,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="603" spans="1:6">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>2070</v>
       </c>
@@ -20758,7 +20745,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="604" spans="1:6">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>2124</v>
       </c>
@@ -20778,7 +20765,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="605" spans="1:6">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>2128</v>
       </c>
@@ -20798,7 +20785,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="606" spans="1:6">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>2132</v>
       </c>
@@ -20818,7 +20805,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="607" spans="1:6">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>2137</v>
       </c>
@@ -20838,7 +20825,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="608" spans="1:6">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>2140</v>
       </c>
@@ -20858,7 +20845,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="609" spans="1:6">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>2143</v>
       </c>
@@ -20878,7 +20865,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="610" spans="1:6">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>420</v>
       </c>
@@ -20898,7 +20885,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="611" spans="1:6">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>2148</v>
       </c>
@@ -20918,7 +20905,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="612" spans="1:6">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>2152</v>
       </c>
@@ -20938,7 +20925,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="613" spans="1:6">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>2156</v>
       </c>
@@ -20958,7 +20945,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="614" spans="1:6">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>2161</v>
       </c>
@@ -20978,7 +20965,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="615" spans="1:6">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>2166</v>
       </c>
@@ -20998,7 +20985,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="616" spans="1:6">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>2169</v>
       </c>
@@ -21018,7 +21005,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="617" spans="1:6">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>2172</v>
       </c>
@@ -21038,7 +21025,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="618" spans="1:6">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>2176</v>
       </c>
@@ -21058,7 +21045,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="619" spans="1:6">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>2180</v>
       </c>
@@ -21078,7 +21065,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="620" spans="1:6">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>2184</v>
       </c>
@@ -21098,7 +21085,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="621" spans="1:6">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>2188</v>
       </c>
@@ -21118,7 +21105,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="622" spans="1:6">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>2192</v>
       </c>
@@ -21138,7 +21125,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="623" spans="1:6">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>2196</v>
       </c>
@@ -21158,7 +21145,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="624" spans="1:6">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>2199</v>
       </c>
@@ -21178,7 +21165,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="625" spans="1:6">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>2203</v>
       </c>
@@ -21198,7 +21185,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="626" spans="1:6">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>2207</v>
       </c>
@@ -21218,7 +21205,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="627" spans="1:6">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>2095</v>
       </c>
@@ -21238,7 +21225,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="628" spans="1:6">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1585</v>
       </c>
@@ -21258,7 +21245,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="629" spans="1:6">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>2212</v>
       </c>
@@ -21278,7 +21265,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="630" spans="1:6">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>2216</v>
       </c>
@@ -21298,7 +21285,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="631" spans="1:6">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>2220</v>
       </c>
@@ -21318,7 +21305,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="632" spans="1:6">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>2224</v>
       </c>
@@ -21338,7 +21325,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="633" spans="1:6">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>2228</v>
       </c>
@@ -21358,7 +21345,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="634" spans="1:6">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>2232</v>
       </c>
@@ -21378,7 +21365,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="635" spans="1:6">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>2235</v>
       </c>
@@ -21398,7 +21385,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="636" spans="1:6">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>2238</v>
       </c>
@@ -21418,7 +21405,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="637" spans="1:6">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>2242</v>
       </c>
@@ -21438,7 +21425,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="638" spans="1:6">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>2245</v>
       </c>
@@ -21458,7 +21445,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="639" spans="1:6">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>2249</v>
       </c>
@@ -21478,7 +21465,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="640" spans="1:6">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>2253</v>
       </c>
@@ -21498,7 +21485,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="641" spans="1:6">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>2256</v>
       </c>
@@ -21518,7 +21505,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="642" spans="1:6">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>2259</v>
       </c>
@@ -21538,7 +21525,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="643" spans="1:6">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>2262</v>
       </c>
@@ -21558,7 +21545,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="644" spans="1:6">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>2266</v>
       </c>
@@ -21578,7 +21565,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="645" spans="1:6">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>2270</v>
       </c>
@@ -21598,7 +21585,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="646" spans="1:6">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>2274</v>
       </c>
@@ -21618,7 +21605,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="647" spans="1:6">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>2280</v>
       </c>
@@ -21638,7 +21625,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="648" spans="1:6">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>2284</v>
       </c>
@@ -21658,7 +21645,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="649" spans="1:6">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>2290</v>
       </c>
@@ -21678,7 +21665,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="650" spans="1:6">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>2294</v>
       </c>
@@ -21698,7 +21685,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="651" spans="1:6">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>2298</v>
       </c>
@@ -21718,7 +21705,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="652" spans="1:6">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>2301</v>
       </c>
@@ -21738,7 +21725,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="653" spans="1:6">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>2305</v>
       </c>
@@ -21758,7 +21745,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="654" spans="1:6">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>2308</v>
       </c>
@@ -21778,7 +21765,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="655" spans="1:6">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>2311</v>
       </c>
@@ -21798,7 +21785,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="656" spans="1:6">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>2314</v>
       </c>
@@ -21818,7 +21805,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="657" spans="1:6">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>2317</v>
       </c>
@@ -21838,7 +21825,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="658" spans="1:6">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>2320</v>
       </c>
@@ -21858,7 +21845,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="659" spans="1:6">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>2323</v>
       </c>
@@ -21878,18 +21865,18 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="660" spans="1:6">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="B660" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="C660" t="s">
-        <v>2329</v>
+        <v>2062</v>
       </c>
       <c r="D660" t="s">
-        <v>1535</v>
+        <v>2063</v>
       </c>
       <c r="E660" t="s">
         <v>2330</v>
@@ -21898,7 +21885,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="661" spans="1:6">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>2332</v>
       </c>
@@ -21918,7 +21905,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="662" spans="1:6">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>2336</v>
       </c>
@@ -21938,7 +21925,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="663" spans="1:6">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>2340</v>
       </c>
@@ -21955,15 +21942,15 @@
         <v>2342</v>
       </c>
       <c r="F663" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="664" spans="1:6">
-      <c r="A664" t="s">
+      <c r="B664" t="s">
         <v>2344</v>
-      </c>
-      <c r="B664" t="s">
-        <v>2345</v>
       </c>
       <c r="C664" t="s">
         <v>2062</v>
@@ -21972,13 +21959,13 @@
         <v>2063</v>
       </c>
       <c r="E664" t="s">
+        <v>2345</v>
+      </c>
+      <c r="F664" t="s">
         <v>2346</v>
       </c>
-      <c r="F664" t="s">
-        <v>2343</v>
-      </c>
-    </row>
-    <row r="665" spans="1:6">
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>2347</v>
       </c>
@@ -21995,15 +21982,15 @@
         <v>2349</v>
       </c>
       <c r="F665" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
         <v>2350</v>
       </c>
-    </row>
-    <row r="666" spans="1:6">
-      <c r="A666" t="s">
+      <c r="B666" t="s">
         <v>2351</v>
-      </c>
-      <c r="B666" t="s">
-        <v>2352</v>
       </c>
       <c r="C666" t="s">
         <v>2062</v>
@@ -22012,18 +21999,18 @@
         <v>2063</v>
       </c>
       <c r="E666" t="s">
+        <v>2352</v>
+      </c>
+      <c r="F666" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
         <v>2353</v>
       </c>
-      <c r="F666" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="667" spans="1:6">
-      <c r="A667" t="s">
+      <c r="B667" t="s">
         <v>2354</v>
-      </c>
-      <c r="B667" t="s">
-        <v>2355</v>
       </c>
       <c r="C667" t="s">
         <v>2062</v>
@@ -22032,18 +22019,18 @@
         <v>2063</v>
       </c>
       <c r="E667" t="s">
+        <v>2355</v>
+      </c>
+      <c r="F667" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
         <v>2356</v>
       </c>
-      <c r="F667" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="668" spans="1:6">
-      <c r="A668" t="s">
+      <c r="B668" t="s">
         <v>2357</v>
-      </c>
-      <c r="B668" t="s">
-        <v>2358</v>
       </c>
       <c r="C668" t="s">
         <v>2062</v>
@@ -22052,18 +22039,18 @@
         <v>2063</v>
       </c>
       <c r="E668" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F668" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
         <v>2359</v>
       </c>
-      <c r="F668" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="669" spans="1:6">
-      <c r="A669" t="s">
+      <c r="B669" t="s">
         <v>2360</v>
-      </c>
-      <c r="B669" t="s">
-        <v>2361</v>
       </c>
       <c r="C669" t="s">
         <v>2062</v>
@@ -22072,18 +22059,18 @@
         <v>2063</v>
       </c>
       <c r="E669" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F669" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
         <v>2362</v>
       </c>
-      <c r="F669" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="670" spans="1:6">
-      <c r="A670" t="s">
+      <c r="B670" t="s">
         <v>2363</v>
-      </c>
-      <c r="B670" t="s">
-        <v>2364</v>
       </c>
       <c r="C670" t="s">
         <v>2062</v>
@@ -22092,18 +22079,18 @@
         <v>2063</v>
       </c>
       <c r="E670" t="s">
+        <v>2364</v>
+      </c>
+      <c r="F670" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
         <v>2365</v>
       </c>
-      <c r="F670" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="671" spans="1:6">
-      <c r="A671" t="s">
+      <c r="B671" t="s">
         <v>2366</v>
-      </c>
-      <c r="B671" t="s">
-        <v>2367</v>
       </c>
       <c r="C671" t="s">
         <v>2062</v>
@@ -22112,18 +22099,18 @@
         <v>2063</v>
       </c>
       <c r="E671" t="s">
+        <v>2367</v>
+      </c>
+      <c r="F671" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
         <v>2368</v>
       </c>
-      <c r="F671" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="672" spans="1:6">
-      <c r="A672" t="s">
+      <c r="B672" t="s">
         <v>2369</v>
-      </c>
-      <c r="B672" t="s">
-        <v>2370</v>
       </c>
       <c r="C672" t="s">
         <v>2062</v>
@@ -22132,18 +22119,18 @@
         <v>2063</v>
       </c>
       <c r="E672" t="s">
+        <v>2370</v>
+      </c>
+      <c r="F672" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
         <v>2371</v>
       </c>
-      <c r="F672" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="673" spans="1:6">
-      <c r="A673" t="s">
+      <c r="B673" t="s">
         <v>2372</v>
-      </c>
-      <c r="B673" t="s">
-        <v>2373</v>
       </c>
       <c r="C673" t="s">
         <v>2062</v>
@@ -22152,18 +22139,18 @@
         <v>2063</v>
       </c>
       <c r="E673" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F673" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
         <v>2374</v>
       </c>
-      <c r="F673" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="674" spans="1:6">
-      <c r="A674" t="s">
+      <c r="B674" t="s">
         <v>2375</v>
-      </c>
-      <c r="B674" t="s">
-        <v>2376</v>
       </c>
       <c r="C674" t="s">
         <v>2062</v>
@@ -22172,18 +22159,18 @@
         <v>2063</v>
       </c>
       <c r="E674" t="s">
+        <v>2376</v>
+      </c>
+      <c r="F674" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
         <v>2377</v>
       </c>
-      <c r="F674" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="675" spans="1:6">
-      <c r="A675" t="s">
+      <c r="B675" t="s">
         <v>2378</v>
-      </c>
-      <c r="B675" t="s">
-        <v>2379</v>
       </c>
       <c r="C675" t="s">
         <v>2062</v>
@@ -22192,18 +22179,18 @@
         <v>2063</v>
       </c>
       <c r="E675" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F675" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
         <v>2380</v>
       </c>
-      <c r="F675" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="676" spans="1:6">
-      <c r="A676" t="s">
+      <c r="B676" t="s">
         <v>2381</v>
-      </c>
-      <c r="B676" t="s">
-        <v>2382</v>
       </c>
       <c r="C676" t="s">
         <v>2062</v>
@@ -22212,38 +22199,38 @@
         <v>2063</v>
       </c>
       <c r="E676" t="s">
+        <v>2382</v>
+      </c>
+      <c r="F676" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
         <v>2383</v>
       </c>
-      <c r="F676" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="677" spans="1:6">
-      <c r="A677" t="s">
+      <c r="B677" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C677" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D677" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E677" t="s">
         <v>2384</v>
       </c>
-      <c r="B677" t="s">
+      <c r="F677" t="s">
         <v>2385</v>
       </c>
-      <c r="C677" t="s">
-        <v>2062</v>
-      </c>
-      <c r="D677" t="s">
-        <v>2063</v>
-      </c>
-      <c r="E677" t="s">
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
         <v>2386</v>
       </c>
-      <c r="F677" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="678" spans="1:6">
-      <c r="A678" t="s">
-        <v>2387</v>
-      </c>
       <c r="B678" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C678" t="s">
         <v>2276</v>
@@ -22252,18 +22239,18 @@
         <v>2277</v>
       </c>
       <c r="E678" t="s">
+        <v>2387</v>
+      </c>
+      <c r="F678" t="s">
         <v>2388</v>
       </c>
-      <c r="F678" t="s">
-        <v>2389</v>
-      </c>
-    </row>
-    <row r="679" spans="1:6">
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>2390</v>
+        <v>2383</v>
       </c>
       <c r="B679" t="s">
-        <v>2390</v>
+        <v>2383</v>
       </c>
       <c r="C679" t="s">
         <v>2276</v>
@@ -22272,18 +22259,18 @@
         <v>2277</v>
       </c>
       <c r="E679" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F679" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B680" t="s">
         <v>2391</v>
-      </c>
-      <c r="F679" t="s">
-        <v>2392</v>
-      </c>
-    </row>
-    <row r="680" spans="1:6">
-      <c r="A680" t="s">
-        <v>2387</v>
-      </c>
-      <c r="B680" t="s">
-        <v>2387</v>
       </c>
       <c r="C680" t="s">
         <v>2276</v>
@@ -22292,13 +22279,13 @@
         <v>2277</v>
       </c>
       <c r="E680" t="s">
-        <v>2388</v>
+        <v>2392</v>
       </c>
       <c r="F680" t="s">
         <v>2393</v>
       </c>
     </row>
-    <row r="681" spans="1:6">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>2394</v>
       </c>
@@ -22315,15 +22302,15 @@
         <v>2396</v>
       </c>
       <c r="F681" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
         <v>2397</v>
       </c>
-    </row>
-    <row r="682" spans="1:6">
-      <c r="A682" t="s">
+      <c r="B682" t="s">
         <v>2398</v>
-      </c>
-      <c r="B682" t="s">
-        <v>2399</v>
       </c>
       <c r="C682" t="s">
         <v>2276</v>
@@ -22332,13 +22319,13 @@
         <v>2277</v>
       </c>
       <c r="E682" t="s">
+        <v>2399</v>
+      </c>
+      <c r="F682" t="s">
         <v>2400</v>
       </c>
-      <c r="F682" t="s">
-        <v>2397</v>
-      </c>
-    </row>
-    <row r="683" spans="1:6">
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>2401</v>
       </c>
@@ -22358,7 +22345,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="684" spans="1:6">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>2405</v>
       </c>
@@ -22366,50 +22353,50 @@
         <v>2406</v>
       </c>
       <c r="C684" t="s">
-        <v>2276</v>
+        <v>2407</v>
       </c>
       <c r="D684" t="s">
-        <v>2277</v>
+        <v>119</v>
       </c>
       <c r="E684" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="F684" t="s">
-        <v>2408</v>
-      </c>
-    </row>
-    <row r="685" spans="1:6">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="B685" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="C685" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="D685" t="s">
         <v>119</v>
       </c>
       <c r="E685" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="F685" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="686" spans="1:6">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="B686" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="C686" t="s">
-        <v>2416</v>
+        <v>203</v>
       </c>
       <c r="D686" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E686" t="s">
         <v>2417</v>
@@ -22418,7 +22405,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="687" spans="1:6">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>2419</v>
       </c>
@@ -22426,39 +22413,39 @@
         <v>2420</v>
       </c>
       <c r="C687" t="s">
-        <v>203</v>
+        <v>439</v>
       </c>
       <c r="D687" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E687" t="s">
+        <v>2408</v>
+      </c>
+      <c r="F687" t="s">
         <v>2421</v>
       </c>
-      <c r="F687" t="s">
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="688" spans="1:6">
-      <c r="A688" t="s">
+      <c r="B688" t="s">
         <v>2423</v>
       </c>
-      <c r="B688" t="s">
+      <c r="C688" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D688" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E688" t="s">
         <v>2424</v>
-      </c>
-      <c r="C688" t="s">
-        <v>439</v>
-      </c>
-      <c r="D688" t="s">
-        <v>119</v>
-      </c>
-      <c r="E688" t="s">
-        <v>2412</v>
       </c>
       <c r="F688" t="s">
         <v>2425</v>
       </c>
     </row>
-    <row r="689" spans="1:6">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>2426</v>
       </c>
@@ -22466,7 +22453,7 @@
         <v>2427</v>
       </c>
       <c r="C689" t="s">
-        <v>1404</v>
+        <v>1023</v>
       </c>
       <c r="D689" t="s">
         <v>1024</v>
@@ -22478,7 +22465,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="690" spans="1:6">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>2430</v>
       </c>
@@ -22498,7 +22485,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="691" spans="1:6">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>2434</v>
       </c>
@@ -22518,7 +22505,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="692" spans="1:6">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>2438</v>
       </c>
@@ -22538,7 +22525,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="693" spans="1:6">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>2442</v>
       </c>
@@ -22555,15 +22542,15 @@
         <v>2444</v>
       </c>
       <c r="F693" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
         <v>2445</v>
       </c>
-    </row>
-    <row r="694" spans="1:6">
-      <c r="A694" t="s">
+      <c r="B694" t="s">
         <v>2446</v>
-      </c>
-      <c r="B694" t="s">
-        <v>2447</v>
       </c>
       <c r="C694" t="s">
         <v>1023</v>
@@ -22572,13 +22559,13 @@
         <v>1024</v>
       </c>
       <c r="E694" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F694" t="s">
         <v>2448</v>
       </c>
-      <c r="F694" t="s">
-        <v>2445</v>
-      </c>
-    </row>
-    <row r="695" spans="1:6">
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>2449</v>
       </c>
@@ -22598,7 +22585,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="696" spans="1:6">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>2453</v>
       </c>
@@ -22618,7 +22605,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="697" spans="1:6">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>2457</v>
       </c>
@@ -22638,7 +22625,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="698" spans="1:6">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>2461</v>
       </c>
@@ -22655,15 +22642,15 @@
         <v>2463</v>
       </c>
       <c r="F698" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
         <v>2464</v>
       </c>
-    </row>
-    <row r="699" spans="1:6">
-      <c r="A699" t="s">
+      <c r="B699" t="s">
         <v>2465</v>
-      </c>
-      <c r="B699" t="s">
-        <v>2466</v>
       </c>
       <c r="C699" t="s">
         <v>1023</v>
@@ -22672,13 +22659,13 @@
         <v>1024</v>
       </c>
       <c r="E699" t="s">
+        <v>2466</v>
+      </c>
+      <c r="F699" t="s">
         <v>2467</v>
       </c>
-      <c r="F699" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="700" spans="1:6">
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>2468</v>
       </c>
@@ -22686,10 +22673,10 @@
         <v>2469</v>
       </c>
       <c r="C700" t="s">
-        <v>1023</v>
+        <v>2276</v>
       </c>
       <c r="D700" t="s">
-        <v>1024</v>
+        <v>2277</v>
       </c>
       <c r="E700" t="s">
         <v>2470</v>
@@ -22698,7 +22685,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="701" spans="1:6">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>2472</v>
       </c>
@@ -22706,10 +22693,10 @@
         <v>2473</v>
       </c>
       <c r="C701" t="s">
-        <v>2276</v>
+        <v>203</v>
       </c>
       <c r="D701" t="s">
-        <v>2277</v>
+        <v>125</v>
       </c>
       <c r="E701" t="s">
         <v>2474</v>
@@ -22718,7 +22705,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="702" spans="1:6">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>2476</v>
       </c>
@@ -22735,15 +22722,15 @@
         <v>2478</v>
       </c>
       <c r="F702" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
         <v>2479</v>
       </c>
-    </row>
-    <row r="703" spans="1:6">
-      <c r="A703" t="s">
+      <c r="B703" t="s">
         <v>2480</v>
-      </c>
-      <c r="B703" t="s">
-        <v>2481</v>
       </c>
       <c r="C703" t="s">
         <v>203</v>
@@ -22752,33 +22739,33 @@
         <v>125</v>
       </c>
       <c r="E703" t="s">
+        <v>2481</v>
+      </c>
+      <c r="F703" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
         <v>2482</v>
       </c>
-      <c r="F703" t="s">
-        <v>2479</v>
-      </c>
-    </row>
-    <row r="704" spans="1:6">
-      <c r="A704" t="s">
+      <c r="B704" t="s">
         <v>2483</v>
       </c>
-      <c r="B704" t="s">
+      <c r="C704" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D704" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E704" t="s">
         <v>2484</v>
       </c>
-      <c r="C704" t="s">
-        <v>203</v>
-      </c>
-      <c r="D704" t="s">
-        <v>125</v>
-      </c>
-      <c r="E704" t="s">
+      <c r="F704" t="s">
         <v>2485</v>
       </c>
-      <c r="F704" t="s">
-        <v>2479</v>
-      </c>
-    </row>
-    <row r="705" spans="1:6">
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>2486</v>
       </c>
@@ -22786,10 +22773,10 @@
         <v>2487</v>
       </c>
       <c r="C705" t="s">
-        <v>2276</v>
+        <v>1023</v>
       </c>
       <c r="D705" t="s">
-        <v>2277</v>
+        <v>1024</v>
       </c>
       <c r="E705" t="s">
         <v>2488</v>
@@ -22798,7 +22785,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="706" spans="1:6">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>2490</v>
       </c>
@@ -22815,15 +22802,15 @@
         <v>2492</v>
       </c>
       <c r="F706" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
         <v>2493</v>
       </c>
-    </row>
-    <row r="707" spans="1:6">
-      <c r="A707" t="s">
+      <c r="B707" t="s">
         <v>2494</v>
-      </c>
-      <c r="B707" t="s">
-        <v>2495</v>
       </c>
       <c r="C707" t="s">
         <v>1023</v>
@@ -22832,18 +22819,18 @@
         <v>1024</v>
       </c>
       <c r="E707" t="s">
+        <v>2495</v>
+      </c>
+      <c r="F707" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
         <v>2496</v>
       </c>
-      <c r="F707" t="s">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="708" spans="1:6">
-      <c r="A708" t="s">
+      <c r="B708" t="s">
         <v>2497</v>
-      </c>
-      <c r="B708" t="s">
-        <v>2498</v>
       </c>
       <c r="C708" t="s">
         <v>1023</v>
@@ -22852,18 +22839,18 @@
         <v>1024</v>
       </c>
       <c r="E708" t="s">
+        <v>2498</v>
+      </c>
+      <c r="F708" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
         <v>2499</v>
       </c>
-      <c r="F708" t="s">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="709" spans="1:6">
-      <c r="A709" t="s">
+      <c r="B709" t="s">
         <v>2500</v>
-      </c>
-      <c r="B709" t="s">
-        <v>2501</v>
       </c>
       <c r="C709" t="s">
         <v>1023</v>
@@ -22872,18 +22859,18 @@
         <v>1024</v>
       </c>
       <c r="E709" t="s">
+        <v>2501</v>
+      </c>
+      <c r="F709" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
         <v>2502</v>
       </c>
-      <c r="F709" t="s">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="710" spans="1:6">
-      <c r="A710" t="s">
+      <c r="B710" t="s">
         <v>2503</v>
-      </c>
-      <c r="B710" t="s">
-        <v>2504</v>
       </c>
       <c r="C710" t="s">
         <v>1023</v>
@@ -22892,18 +22879,18 @@
         <v>1024</v>
       </c>
       <c r="E710" t="s">
+        <v>2504</v>
+      </c>
+      <c r="F710" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
         <v>2505</v>
       </c>
-      <c r="F710" t="s">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="711" spans="1:6">
-      <c r="A711" t="s">
+      <c r="B711" t="s">
         <v>2506</v>
-      </c>
-      <c r="B711" t="s">
-        <v>2507</v>
       </c>
       <c r="C711" t="s">
         <v>1023</v>
@@ -22912,18 +22899,18 @@
         <v>1024</v>
       </c>
       <c r="E711" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F711" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
         <v>2508</v>
       </c>
-      <c r="F711" t="s">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="712" spans="1:6">
-      <c r="A712" t="s">
+      <c r="B712" t="s">
         <v>2509</v>
-      </c>
-      <c r="B712" t="s">
-        <v>2510</v>
       </c>
       <c r="C712" t="s">
         <v>1023</v>
@@ -22932,18 +22919,18 @@
         <v>1024</v>
       </c>
       <c r="E712" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="F712" t="s">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="713" spans="1:6">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>2512</v>
+        <v>1916</v>
       </c>
       <c r="B713" t="s">
-        <v>2513</v>
+        <v>1917</v>
       </c>
       <c r="C713" t="s">
         <v>1023</v>
@@ -22952,33 +22939,33 @@
         <v>1024</v>
       </c>
       <c r="E713" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F713" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B714" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C714" t="s">
+        <v>7</v>
+      </c>
+      <c r="D714" t="s">
+        <v>8</v>
+      </c>
+      <c r="E714" t="s">
         <v>2514</v>
-      </c>
-      <c r="F713" t="s">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="714" spans="1:6">
-      <c r="A714" t="s">
-        <v>1916</v>
-      </c>
-      <c r="B714" t="s">
-        <v>1917</v>
-      </c>
-      <c r="C714" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D714" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E714" t="s">
-        <v>1145</v>
       </c>
       <c r="F714" t="s">
         <v>2515</v>
       </c>
     </row>
-    <row r="715" spans="1:6">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>2516</v>
       </c>
@@ -22995,15 +22982,15 @@
         <v>2518</v>
       </c>
       <c r="F715" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
         <v>2519</v>
       </c>
-    </row>
-    <row r="716" spans="1:6">
-      <c r="A716" t="s">
+      <c r="B716" t="s">
         <v>2520</v>
-      </c>
-      <c r="B716" t="s">
-        <v>2521</v>
       </c>
       <c r="C716" t="s">
         <v>7</v>
@@ -23012,18 +22999,18 @@
         <v>8</v>
       </c>
       <c r="E716" t="s">
+        <v>2521</v>
+      </c>
+      <c r="F716" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
         <v>2522</v>
       </c>
-      <c r="F716" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="717" spans="1:6">
-      <c r="A717" t="s">
+      <c r="B717" t="s">
         <v>2523</v>
-      </c>
-      <c r="B717" t="s">
-        <v>2524</v>
       </c>
       <c r="C717" t="s">
         <v>7</v>
@@ -23032,18 +23019,18 @@
         <v>8</v>
       </c>
       <c r="E717" t="s">
+        <v>2524</v>
+      </c>
+      <c r="F717" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
         <v>2525</v>
       </c>
-      <c r="F717" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="718" spans="1:6">
-      <c r="A718" t="s">
+      <c r="B718" t="s">
         <v>2526</v>
-      </c>
-      <c r="B718" t="s">
-        <v>2527</v>
       </c>
       <c r="C718" t="s">
         <v>7</v>
@@ -23052,18 +23039,18 @@
         <v>8</v>
       </c>
       <c r="E718" t="s">
+        <v>2527</v>
+      </c>
+      <c r="F718" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
         <v>2528</v>
       </c>
-      <c r="F718" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="719" spans="1:6">
-      <c r="A719" t="s">
+      <c r="B719" t="s">
         <v>2529</v>
-      </c>
-      <c r="B719" t="s">
-        <v>2530</v>
       </c>
       <c r="C719" t="s">
         <v>7</v>
@@ -23072,18 +23059,18 @@
         <v>8</v>
       </c>
       <c r="E719" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F719" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
         <v>2531</v>
       </c>
-      <c r="F719" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="720" spans="1:6">
-      <c r="A720" t="s">
+      <c r="B720" t="s">
         <v>2532</v>
-      </c>
-      <c r="B720" t="s">
-        <v>2533</v>
       </c>
       <c r="C720" t="s">
         <v>7</v>
@@ -23092,18 +23079,18 @@
         <v>8</v>
       </c>
       <c r="E720" t="s">
+        <v>2533</v>
+      </c>
+      <c r="F720" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
         <v>2534</v>
       </c>
-      <c r="F720" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="721" spans="1:6">
-      <c r="A721" t="s">
+      <c r="B721" t="s">
         <v>2535</v>
-      </c>
-      <c r="B721" t="s">
-        <v>2536</v>
       </c>
       <c r="C721" t="s">
         <v>7</v>
@@ -23112,18 +23099,18 @@
         <v>8</v>
       </c>
       <c r="E721" t="s">
+        <v>2536</v>
+      </c>
+      <c r="F721" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
         <v>2537</v>
       </c>
-      <c r="F721" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="722" spans="1:6">
-      <c r="A722" t="s">
+      <c r="B722" t="s">
         <v>2538</v>
-      </c>
-      <c r="B722" t="s">
-        <v>2539</v>
       </c>
       <c r="C722" t="s">
         <v>7</v>
@@ -23132,18 +23119,18 @@
         <v>8</v>
       </c>
       <c r="E722" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F722" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
         <v>2540</v>
       </c>
-      <c r="F722" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="723" spans="1:6">
-      <c r="A723" t="s">
+      <c r="B723" t="s">
         <v>2541</v>
-      </c>
-      <c r="B723" t="s">
-        <v>2542</v>
       </c>
       <c r="C723" t="s">
         <v>7</v>
@@ -23152,18 +23139,18 @@
         <v>8</v>
       </c>
       <c r="E723" t="s">
+        <v>2542</v>
+      </c>
+      <c r="F723" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
         <v>2543</v>
       </c>
-      <c r="F723" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="724" spans="1:6">
-      <c r="A724" t="s">
+      <c r="B724" t="s">
         <v>2544</v>
-      </c>
-      <c r="B724" t="s">
-        <v>2545</v>
       </c>
       <c r="C724" t="s">
         <v>7</v>
@@ -23172,58 +23159,58 @@
         <v>8</v>
       </c>
       <c r="E724" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F724" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
         <v>2546</v>
       </c>
-      <c r="F724" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="725" spans="1:6">
-      <c r="A725" t="s">
+      <c r="B725" t="s">
         <v>2547</v>
       </c>
-      <c r="B725" t="s">
+      <c r="C725" t="s">
         <v>2548</v>
       </c>
-      <c r="C725" t="s">
-        <v>7</v>
-      </c>
       <c r="D725" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="E725" t="s">
         <v>2549</v>
       </c>
       <c r="F725" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="726" spans="1:6">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="B726" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="C726" t="s">
-        <v>2552</v>
+        <v>2134</v>
       </c>
       <c r="D726" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="E726" t="s">
         <v>2553</v>
       </c>
       <c r="F726" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="727" spans="1:6">
-      <c r="A727" t="s">
+      <c r="B727" t="s">
         <v>2555</v>
-      </c>
-      <c r="B727" t="s">
-        <v>2556</v>
       </c>
       <c r="C727" t="s">
         <v>2134</v>
@@ -23232,18 +23219,18 @@
         <v>8</v>
       </c>
       <c r="E727" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F727" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
         <v>2557</v>
       </c>
-      <c r="F727" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="728" spans="1:6">
-      <c r="A728" t="s">
+      <c r="B728" t="s">
         <v>2558</v>
-      </c>
-      <c r="B728" t="s">
-        <v>2559</v>
       </c>
       <c r="C728" t="s">
         <v>2134</v>
@@ -23252,33 +23239,33 @@
         <v>8</v>
       </c>
       <c r="E728" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F728" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
         <v>2560</v>
       </c>
-      <c r="F728" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="729" spans="1:6">
-      <c r="A729" t="s">
+      <c r="B729" t="s">
         <v>2561</v>
       </c>
-      <c r="B729" t="s">
-        <v>2562</v>
-      </c>
       <c r="C729" t="s">
-        <v>2134</v>
+        <v>7</v>
       </c>
       <c r="D729" t="s">
         <v>8</v>
       </c>
       <c r="E729" t="s">
+        <v>2562</v>
+      </c>
+      <c r="F729" t="s">
         <v>2563</v>
       </c>
-      <c r="F729" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="730" spans="1:6">
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>2564</v>
       </c>
@@ -23298,7 +23285,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="731" spans="1:6">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>2568</v>
       </c>
@@ -23318,7 +23305,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="732" spans="1:6">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>2572</v>
       </c>
@@ -23338,7 +23325,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="733" spans="1:6">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>2576</v>
       </c>
@@ -23355,30 +23342,30 @@
         <v>2578</v>
       </c>
       <c r="F733" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
         <v>2579</v>
       </c>
-    </row>
-    <row r="734" spans="1:6">
-      <c r="A734" t="s">
+      <c r="B734" t="s">
         <v>2580</v>
       </c>
-      <c r="B734" t="s">
+      <c r="C734" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D734" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E734" t="s">
         <v>2581</v>
       </c>
-      <c r="C734" t="s">
-        <v>7</v>
-      </c>
-      <c r="D734" t="s">
-        <v>8</v>
-      </c>
-      <c r="E734" t="s">
+      <c r="F734" t="s">
         <v>2582</v>
       </c>
-      <c r="F734" t="s">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="735" spans="1:6">
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>2583</v>
       </c>
@@ -23395,15 +23382,15 @@
         <v>2585</v>
       </c>
       <c r="F735" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
         <v>2586</v>
       </c>
-    </row>
-    <row r="736" spans="1:6">
-      <c r="A736" t="s">
+      <c r="B736" t="s">
         <v>2587</v>
-      </c>
-      <c r="B736" t="s">
-        <v>2588</v>
       </c>
       <c r="C736" t="s">
         <v>1023</v>
@@ -23412,61 +23399,61 @@
         <v>1024</v>
       </c>
       <c r="E736" t="s">
+        <v>2588</v>
+      </c>
+      <c r="F736" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B737" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C737" t="s">
+        <v>426</v>
+      </c>
+      <c r="D737" t="s">
+        <v>119</v>
+      </c>
+      <c r="E737" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F737" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
         <v>2589</v>
       </c>
-      <c r="F736" t="s">
-        <v>2586</v>
-      </c>
-    </row>
-    <row r="737" spans="1:6">
-      <c r="A737" t="s">
+      <c r="B738" t="s">
         <v>2590</v>
       </c>
-      <c r="B737" t="s">
+      <c r="C738" t="s">
         <v>2591</v>
       </c>
-      <c r="C737" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D737" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E737" t="s">
+      <c r="D738" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E738" t="s">
         <v>2592</v>
       </c>
-      <c r="F737" t="s">
-        <v>2586</v>
-      </c>
-    </row>
-    <row r="738" spans="1:6">
-      <c r="A738" t="s">
-        <v>2259</v>
-      </c>
-      <c r="B738" t="s">
-        <v>2260</v>
-      </c>
-      <c r="C738" t="s">
-        <v>426</v>
-      </c>
-      <c r="D738" t="s">
-        <v>119</v>
-      </c>
-      <c r="E738" t="s">
-        <v>2261</v>
-      </c>
       <c r="F738" t="s">
-        <v>2252</v>
-      </c>
-    </row>
-    <row r="739" spans="1:6">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="B739" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="C739" t="s">
-        <v>2595</v>
+        <v>2591</v>
       </c>
       <c r="D739" t="s">
         <v>2277</v>
@@ -23475,35 +23462,35 @@
         <v>2596</v>
       </c>
       <c r="F739" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
         <v>2597</v>
       </c>
-    </row>
-    <row r="740" spans="1:6">
-      <c r="A740" t="s">
+      <c r="B740" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C740" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D740" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E740" t="s">
+        <v>2292</v>
+      </c>
+      <c r="F740" t="s">
         <v>2598</v>
       </c>
-      <c r="B740" t="s">
-        <v>2599</v>
-      </c>
-      <c r="C740" t="s">
-        <v>2595</v>
-      </c>
-      <c r="D740" t="s">
-        <v>2277</v>
-      </c>
-      <c r="E740" t="s">
-        <v>2600</v>
-      </c>
-      <c r="F740" t="s">
-        <v>2597</v>
-      </c>
-    </row>
-    <row r="741" spans="1:6">
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>2601</v>
+        <v>1740</v>
       </c>
       <c r="B741" t="s">
-        <v>2291</v>
+        <v>1741</v>
       </c>
       <c r="C741" t="s">
         <v>1023</v>
@@ -23512,33 +23499,33 @@
         <v>1024</v>
       </c>
       <c r="E741" t="s">
-        <v>2292</v>
+        <v>1111</v>
       </c>
       <c r="F741" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B742" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C742" t="s">
+        <v>7</v>
+      </c>
+      <c r="D742" t="s">
+        <v>8</v>
+      </c>
+      <c r="E742" t="s">
         <v>2602</v>
-      </c>
-    </row>
-    <row r="742" spans="1:6">
-      <c r="A742" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B742" t="s">
-        <v>1741</v>
-      </c>
-      <c r="C742" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D742" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E742" t="s">
-        <v>1111</v>
       </c>
       <c r="F742" t="s">
         <v>2603</v>
       </c>
     </row>
-    <row r="743" spans="1:6">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>2604</v>
       </c>
@@ -23558,7 +23545,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="744" spans="1:6">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>2608</v>
       </c>
@@ -23575,15 +23562,15 @@
         <v>2610</v>
       </c>
       <c r="F744" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
         <v>2611</v>
       </c>
-    </row>
-    <row r="745" spans="1:6">
-      <c r="A745" t="s">
+      <c r="B745" t="s">
         <v>2612</v>
-      </c>
-      <c r="B745" t="s">
-        <v>2613</v>
       </c>
       <c r="C745" t="s">
         <v>7</v>
@@ -23592,13 +23579,13 @@
         <v>8</v>
       </c>
       <c r="E745" t="s">
+        <v>2613</v>
+      </c>
+      <c r="F745" t="s">
         <v>2614</v>
       </c>
-      <c r="F745" t="s">
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="746" spans="1:6">
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>2615</v>
       </c>
@@ -23606,239 +23593,239 @@
         <v>2616</v>
       </c>
       <c r="C746" t="s">
-        <v>7</v>
+        <v>2617</v>
       </c>
       <c r="D746" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="E746" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="F746" t="s">
-        <v>2618</v>
-      </c>
-    </row>
-    <row r="747" spans="1:6">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="B747" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="C747" t="s">
-        <v>2621</v>
+        <v>2327</v>
       </c>
       <c r="D747" t="s">
-        <v>119</v>
+        <v>1535</v>
       </c>
       <c r="E747" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F747" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
         <v>2622</v>
       </c>
-      <c r="F747" t="s">
+      <c r="B748" t="s">
         <v>2623</v>
       </c>
-    </row>
-    <row r="748" spans="1:6">
-      <c r="A748" t="s">
-        <v>2624</v>
-      </c>
-      <c r="B748" t="s">
-        <v>2625</v>
-      </c>
       <c r="C748" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="D748" t="s">
         <v>1535</v>
       </c>
       <c r="E748" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="F748" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="749" spans="1:6">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="B749" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="C749" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="D749" t="s">
         <v>1535</v>
       </c>
       <c r="E749" t="s">
-        <v>1540</v>
+        <v>2052</v>
       </c>
       <c r="F749" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="750" spans="1:6">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="B750" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="C750" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="D750" t="s">
         <v>1535</v>
       </c>
       <c r="E750" t="s">
-        <v>2052</v>
+        <v>1583</v>
       </c>
       <c r="F750" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="751" spans="1:6">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="B751" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="C751" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="D751" t="s">
         <v>1535</v>
       </c>
       <c r="E751" t="s">
-        <v>1583</v>
+        <v>2056</v>
       </c>
       <c r="F751" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="752" spans="1:6">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="B752" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="C752" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="D752" t="s">
         <v>1535</v>
       </c>
       <c r="E752" t="s">
-        <v>2056</v>
+        <v>1587</v>
       </c>
       <c r="F752" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="753" spans="1:6">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="B753" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="C753" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="D753" t="s">
         <v>1535</v>
       </c>
       <c r="E753" t="s">
-        <v>1587</v>
+        <v>1939</v>
       </c>
       <c r="F753" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="754" spans="1:6">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="B754" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="C754" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="D754" t="s">
         <v>1535</v>
       </c>
       <c r="E754" t="s">
-        <v>1939</v>
+        <v>1591</v>
       </c>
       <c r="F754" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="755" spans="1:6">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="B755" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="C755" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="D755" t="s">
         <v>1535</v>
       </c>
       <c r="E755" t="s">
-        <v>1591</v>
+        <v>2059</v>
       </c>
       <c r="F755" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="756" spans="1:6">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="B756" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="C756" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="D756" t="s">
         <v>1535</v>
       </c>
       <c r="E756" t="s">
-        <v>2059</v>
+        <v>1611</v>
       </c>
       <c r="F756" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="757" spans="1:6">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B757" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C757" t="s">
+        <v>7</v>
+      </c>
+      <c r="D757" t="s">
+        <v>8</v>
+      </c>
+      <c r="E757" t="s">
         <v>2642</v>
       </c>
-      <c r="B757" t="s">
+      <c r="F757" t="s">
         <v>2643</v>
       </c>
-      <c r="C757" t="s">
-        <v>2329</v>
-      </c>
-      <c r="D757" t="s">
-        <v>1535</v>
-      </c>
-      <c r="E757" t="s">
-        <v>1611</v>
-      </c>
-      <c r="F757" t="s">
-        <v>2326</v>
-      </c>
-    </row>
-    <row r="758" spans="1:6">
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>2644</v>
       </c>
@@ -23858,7 +23845,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="759" spans="1:6">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>2648</v>
       </c>
@@ -23866,10 +23853,10 @@
         <v>2649</v>
       </c>
       <c r="C759" t="s">
-        <v>7</v>
+        <v>2276</v>
       </c>
       <c r="D759" t="s">
-        <v>8</v>
+        <v>2277</v>
       </c>
       <c r="E759" t="s">
         <v>2650</v>
@@ -23878,7 +23865,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="760" spans="1:6">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>2652</v>
       </c>
@@ -23895,15 +23882,15 @@
         <v>2654</v>
       </c>
       <c r="F760" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
         <v>2655</v>
       </c>
-    </row>
-    <row r="761" spans="1:6">
-      <c r="A761" t="s">
+      <c r="B761" t="s">
         <v>2656</v>
-      </c>
-      <c r="B761" t="s">
-        <v>2657</v>
       </c>
       <c r="C761" t="s">
         <v>2276</v>
@@ -23912,18 +23899,18 @@
         <v>2277</v>
       </c>
       <c r="E761" t="s">
+        <v>2657</v>
+      </c>
+      <c r="F761" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
         <v>2658</v>
       </c>
-      <c r="F761" t="s">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="762" spans="1:6">
-      <c r="A762" t="s">
+      <c r="B762" t="s">
         <v>2659</v>
-      </c>
-      <c r="B762" t="s">
-        <v>2660</v>
       </c>
       <c r="C762" t="s">
         <v>2276</v>
@@ -23932,38 +23919,38 @@
         <v>2277</v>
       </c>
       <c r="E762" t="s">
+        <v>2660</v>
+      </c>
+      <c r="F762" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C763" t="s">
+        <v>7</v>
+      </c>
+      <c r="D763" t="s">
+        <v>8</v>
+      </c>
+      <c r="E763" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F763" t="s">
         <v>2661</v>
       </c>
-      <c r="F762" t="s">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="763" spans="1:6">
-      <c r="A763" t="s">
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
         <v>2662</v>
       </c>
-      <c r="B763" t="s">
+      <c r="B764" t="s">
         <v>2663</v>
-      </c>
-      <c r="C763" t="s">
-        <v>2276</v>
-      </c>
-      <c r="D763" t="s">
-        <v>2277</v>
-      </c>
-      <c r="E763" t="s">
-        <v>2664</v>
-      </c>
-      <c r="F763" t="s">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="764" spans="1:6">
-      <c r="A764" t="s">
-        <v>1925</v>
-      </c>
-      <c r="B764" t="s">
-        <v>1926</v>
       </c>
       <c r="C764" t="s">
         <v>7</v>
@@ -23972,18 +23959,18 @@
         <v>8</v>
       </c>
       <c r="E764" t="s">
-        <v>1927</v>
+        <v>2664</v>
       </c>
       <c r="F764" t="s">
         <v>2665</v>
       </c>
     </row>
-    <row r="765" spans="1:6">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>2666</v>
+        <v>2560</v>
       </c>
       <c r="B765" t="s">
-        <v>2667</v>
+        <v>2561</v>
       </c>
       <c r="C765" t="s">
         <v>7</v>
@@ -23992,18 +23979,18 @@
         <v>8</v>
       </c>
       <c r="E765" t="s">
+        <v>2562</v>
+      </c>
+      <c r="F765" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B766" t="s">
         <v>2668</v>
-      </c>
-      <c r="F765" t="s">
-        <v>2669</v>
-      </c>
-    </row>
-    <row r="766" spans="1:6">
-      <c r="A766" t="s">
-        <v>2564</v>
-      </c>
-      <c r="B766" t="s">
-        <v>2565</v>
       </c>
       <c r="C766" t="s">
         <v>7</v>
@@ -24012,13 +23999,13 @@
         <v>8</v>
       </c>
       <c r="E766" t="s">
-        <v>2566</v>
+        <v>2669</v>
       </c>
       <c r="F766" t="s">
         <v>2670</v>
       </c>
     </row>
-    <row r="767" spans="1:6">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>2671</v>
       </c>
@@ -24038,12 +24025,12 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="768" spans="1:6">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>2675</v>
+        <v>35</v>
       </c>
       <c r="B768" t="s">
-        <v>2676</v>
+        <v>36</v>
       </c>
       <c r="C768" t="s">
         <v>7</v>
@@ -24052,33 +24039,33 @@
         <v>8</v>
       </c>
       <c r="E768" t="s">
+        <v>37</v>
+      </c>
+      <c r="F768" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B769" t="s">
         <v>2677</v>
       </c>
-      <c r="F768" t="s">
+      <c r="C769" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D769" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E769" t="s">
         <v>2678</v>
-      </c>
-    </row>
-    <row r="769" spans="1:6">
-      <c r="A769" t="s">
-        <v>35</v>
-      </c>
-      <c r="B769" t="s">
-        <v>36</v>
-      </c>
-      <c r="C769" t="s">
-        <v>7</v>
-      </c>
-      <c r="D769" t="s">
-        <v>8</v>
-      </c>
-      <c r="E769" t="s">
-        <v>37</v>
       </c>
       <c r="F769" t="s">
         <v>2679</v>
       </c>
     </row>
-    <row r="770" spans="1:6">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>2680</v>
       </c>
@@ -24086,7 +24073,7 @@
         <v>2681</v>
       </c>
       <c r="C770" t="s">
-        <v>1404</v>
+        <v>1023</v>
       </c>
       <c r="D770" t="s">
         <v>1024</v>
@@ -24098,7 +24085,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="771" spans="1:6">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>2684</v>
       </c>
@@ -24118,7 +24105,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="772" spans="1:6">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>2688</v>
       </c>
@@ -24138,7 +24125,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="773" spans="1:6">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>2692</v>
       </c>
@@ -24158,7 +24145,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="774" spans="1:6">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>2696</v>
       </c>
@@ -24178,7 +24165,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="775" spans="1:6">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>2700</v>
       </c>
@@ -24198,7 +24185,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="776" spans="1:6">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>2704</v>
       </c>
@@ -24218,7 +24205,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="777" spans="1:6">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>2708</v>
       </c>
@@ -24238,7 +24225,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="778" spans="1:6">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>2712</v>
       </c>
@@ -24246,10 +24233,10 @@
         <v>2713</v>
       </c>
       <c r="C778" t="s">
-        <v>1023</v>
+        <v>647</v>
       </c>
       <c r="D778" t="s">
-        <v>1024</v>
+        <v>648</v>
       </c>
       <c r="E778" t="s">
         <v>2714</v>
@@ -24258,7 +24245,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="779" spans="1:6">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>2716</v>
       </c>
@@ -24266,10 +24253,10 @@
         <v>2717</v>
       </c>
       <c r="C779" t="s">
-        <v>647</v>
+        <v>7</v>
       </c>
       <c r="D779" t="s">
-        <v>648</v>
+        <v>8</v>
       </c>
       <c r="E779" t="s">
         <v>2718</v>
@@ -24278,7 +24265,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="780" spans="1:6">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>2720</v>
       </c>
@@ -24298,7 +24285,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="781" spans="1:6">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>2724</v>
       </c>
@@ -24306,10 +24293,10 @@
         <v>2725</v>
       </c>
       <c r="C781" t="s">
-        <v>7</v>
+        <v>367</v>
       </c>
       <c r="D781" t="s">
-        <v>8</v>
+        <v>368</v>
       </c>
       <c r="E781" t="s">
         <v>2726</v>
@@ -24318,7 +24305,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="782" spans="1:6">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>2728</v>
       </c>
@@ -24326,39 +24313,39 @@
         <v>2729</v>
       </c>
       <c r="C782" t="s">
+        <v>353</v>
+      </c>
+      <c r="D782" t="s">
+        <v>354</v>
+      </c>
+      <c r="E782" t="s">
+        <v>9</v>
+      </c>
+      <c r="F782" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B783" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C783" t="s">
         <v>367</v>
       </c>
-      <c r="D782" t="s">
+      <c r="D783" t="s">
         <v>368</v>
       </c>
-      <c r="E782" t="s">
-        <v>2730</v>
-      </c>
-      <c r="F782" t="s">
-        <v>2731</v>
-      </c>
-    </row>
-    <row r="783" spans="1:6">
-      <c r="A783" t="s">
+      <c r="E783" t="s">
         <v>2732</v>
       </c>
-      <c r="B783" t="s">
+      <c r="F783" t="s">
         <v>2733</v>
       </c>
-      <c r="C783" t="s">
-        <v>353</v>
-      </c>
-      <c r="D783" t="s">
-        <v>354</v>
-      </c>
-      <c r="E783" t="s">
-        <v>9</v>
-      </c>
-      <c r="F783" t="s">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="784" spans="1:6">
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>2734</v>
       </c>
@@ -24378,7 +24365,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="785" spans="1:6">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>2738</v>
       </c>
@@ -24398,7 +24385,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="786" spans="1:6">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>2742</v>
       </c>
@@ -24415,15 +24402,15 @@
         <v>2744</v>
       </c>
       <c r="F786" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
         <v>2745</v>
       </c>
-    </row>
-    <row r="787" spans="1:6">
-      <c r="A787" t="s">
+      <c r="B787" t="s">
         <v>2746</v>
-      </c>
-      <c r="B787" t="s">
-        <v>2747</v>
       </c>
       <c r="C787" t="s">
         <v>367</v>
@@ -24432,18 +24419,18 @@
         <v>368</v>
       </c>
       <c r="E787" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F787" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
         <v>2748</v>
       </c>
-      <c r="F787" t="s">
-        <v>2745</v>
-      </c>
-    </row>
-    <row r="788" spans="1:6">
-      <c r="A788" t="s">
+      <c r="B788" t="s">
         <v>2749</v>
-      </c>
-      <c r="B788" t="s">
-        <v>2750</v>
       </c>
       <c r="C788" t="s">
         <v>367</v>
@@ -24452,18 +24439,18 @@
         <v>368</v>
       </c>
       <c r="E788" t="s">
+        <v>2750</v>
+      </c>
+      <c r="F788" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
         <v>2751</v>
       </c>
-      <c r="F788" t="s">
-        <v>2745</v>
-      </c>
-    </row>
-    <row r="789" spans="1:6">
-      <c r="A789" t="s">
+      <c r="B789" t="s">
         <v>2752</v>
-      </c>
-      <c r="B789" t="s">
-        <v>2753</v>
       </c>
       <c r="C789" t="s">
         <v>367</v>
@@ -24472,18 +24459,18 @@
         <v>368</v>
       </c>
       <c r="E789" t="s">
+        <v>2753</v>
+      </c>
+      <c r="F789" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
         <v>2754</v>
       </c>
-      <c r="F789" t="s">
-        <v>2745</v>
-      </c>
-    </row>
-    <row r="790" spans="1:6">
-      <c r="A790" t="s">
+      <c r="B790" t="s">
         <v>2755</v>
-      </c>
-      <c r="B790" t="s">
-        <v>2756</v>
       </c>
       <c r="C790" t="s">
         <v>367</v>
@@ -24492,53 +24479,53 @@
         <v>368</v>
       </c>
       <c r="E790" t="s">
+        <v>2756</v>
+      </c>
+      <c r="F790" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
         <v>2757</v>
       </c>
-      <c r="F790" t="s">
-        <v>2745</v>
-      </c>
-    </row>
-    <row r="791" spans="1:6">
-      <c r="A791" t="s">
+      <c r="B791" t="s">
         <v>2758</v>
       </c>
-      <c r="B791" t="s">
+      <c r="C791" t="s">
+        <v>7</v>
+      </c>
+      <c r="D791" t="s">
+        <v>8</v>
+      </c>
+      <c r="E791" t="s">
         <v>2759</v>
       </c>
-      <c r="C791" t="s">
-        <v>367</v>
-      </c>
-      <c r="D791" t="s">
-        <v>368</v>
-      </c>
-      <c r="E791" t="s">
+      <c r="F791" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
         <v>2760</v>
       </c>
-      <c r="F791" t="s">
-        <v>2745</v>
-      </c>
-    </row>
-    <row r="792" spans="1:6">
-      <c r="A792" t="s">
+      <c r="B792" t="s">
         <v>2761</v>
       </c>
-      <c r="B792" t="s">
+      <c r="C792" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D792" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E792" t="s">
         <v>2762</v>
       </c>
-      <c r="C792" t="s">
-        <v>7</v>
-      </c>
-      <c r="D792" t="s">
-        <v>8</v>
-      </c>
-      <c r="E792" t="s">
+      <c r="F792" t="s">
         <v>2763</v>
       </c>
-      <c r="F792" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="793" spans="1:6">
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>2764</v>
       </c>
@@ -24558,7 +24545,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="794" spans="1:6">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>2768</v>
       </c>
@@ -24566,10 +24553,10 @@
         <v>2769</v>
       </c>
       <c r="C794" t="s">
-        <v>1023</v>
+        <v>7</v>
       </c>
       <c r="D794" t="s">
-        <v>1024</v>
+        <v>8</v>
       </c>
       <c r="E794" t="s">
         <v>2770</v>
@@ -24578,98 +24565,98 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="795" spans="1:6">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B795" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C795" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D795" t="s">
+        <v>125</v>
+      </c>
+      <c r="E795" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F795" t="s">
         <v>2772</v>
       </c>
-      <c r="B795" t="s">
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
         <v>2773</v>
       </c>
-      <c r="C795" t="s">
-        <v>7</v>
-      </c>
-      <c r="D795" t="s">
-        <v>8</v>
-      </c>
-      <c r="E795" t="s">
+      <c r="B796" t="s">
         <v>2774</v>
       </c>
-      <c r="F795" t="s">
-        <v>2775</v>
-      </c>
-    </row>
-    <row r="796" spans="1:6">
-      <c r="A796" t="s">
-        <v>2245</v>
-      </c>
-      <c r="B796" t="s">
-        <v>2246</v>
-      </c>
       <c r="C796" t="s">
-        <v>2244</v>
+        <v>203</v>
       </c>
       <c r="D796" t="s">
         <v>125</v>
       </c>
       <c r="E796" t="s">
-        <v>2247</v>
+        <v>2775</v>
       </c>
       <c r="F796" t="s">
         <v>2776</v>
       </c>
     </row>
-    <row r="797" spans="1:6">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
+        <v>55</v>
+      </c>
+      <c r="B797" t="s">
+        <v>56</v>
+      </c>
+      <c r="C797" t="s">
+        <v>7</v>
+      </c>
+      <c r="D797" t="s">
+        <v>8</v>
+      </c>
+      <c r="E797" t="s">
+        <v>57</v>
+      </c>
+      <c r="F797" t="s">
         <v>2777</v>
       </c>
-      <c r="B797" t="s">
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
         <v>2778</v>
       </c>
-      <c r="C797" t="s">
-        <v>203</v>
-      </c>
-      <c r="D797" t="s">
-        <v>125</v>
-      </c>
-      <c r="E797" t="s">
+      <c r="B798" t="s">
         <v>2779</v>
       </c>
-      <c r="F797" t="s">
+      <c r="C798" t="s">
         <v>2780</v>
       </c>
-    </row>
-    <row r="798" spans="1:6">
-      <c r="A798" t="s">
-        <v>55</v>
-      </c>
-      <c r="B798" t="s">
-        <v>56</v>
-      </c>
-      <c r="C798" t="s">
-        <v>7</v>
-      </c>
       <c r="D798" t="s">
-        <v>8</v>
+        <v>2781</v>
       </c>
       <c r="E798" t="s">
-        <v>57</v>
+        <v>2782</v>
       </c>
       <c r="F798" t="s">
-        <v>2781</v>
-      </c>
-    </row>
-    <row r="799" spans="1:6">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="B799" t="s">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c r="C799" t="s">
-        <v>2784</v>
+        <v>426</v>
       </c>
       <c r="D799" t="s">
-        <v>2785</v>
+        <v>119</v>
       </c>
       <c r="E799" t="s">
         <v>2786</v>
@@ -24678,7 +24665,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="800" spans="1:6">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>2788</v>
       </c>
@@ -24686,10 +24673,10 @@
         <v>2789</v>
       </c>
       <c r="C800" t="s">
-        <v>426</v>
+        <v>1023</v>
       </c>
       <c r="D800" t="s">
-        <v>119</v>
+        <v>1024</v>
       </c>
       <c r="E800" t="s">
         <v>2790</v>
@@ -24698,7 +24685,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="801" spans="1:6">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>2792</v>
       </c>
@@ -24715,27 +24702,7 @@
         <v>2794</v>
       </c>
       <c r="F801" t="s">
-        <v>2795</v>
-      </c>
-    </row>
-    <row r="802" spans="1:6">
-      <c r="A802" t="s">
-        <v>2796</v>
-      </c>
-      <c r="B802" t="s">
-        <v>2797</v>
-      </c>
-      <c r="C802" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D802" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E802" t="s">
-        <v>2798</v>
-      </c>
-      <c r="F802" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
     </row>
   </sheetData>
